--- a/FrontendSecure/Content/Template.xlsx
+++ b/FrontendSecure/Content/Template.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
-  <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Firma navn:</t>
   </si>
@@ -78,13 +75,19 @@
   </si>
   <si>
     <t>OS</t>
+  </si>
+  <si>
+    <t>DEN MÅ IKKE GEMMES SOM "STRICT OPEN XML"</t>
+  </si>
+  <si>
+    <t>Skal bare være xls eller xlsx format!!!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +105,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -125,21 +135,21 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
-    <border>
-      <start/>
-      <end/>
+  <borders count="12">
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <start style="medium">
-        <color indexed="64"/>
-      </start>
-      <end style="medium">
-        <color indexed="64"/>
-      </end>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -149,12 +159,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
-        <color indexed="64"/>
-      </start>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -164,12 +174,47 @@
       <diagonal/>
     </border>
     <border>
-      <start style="medium">
-        <color indexed="64"/>
-      </start>
-      <end style="medium">
-        <color indexed="64"/>
-      </end>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -177,47 +222,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start/>
-      <end style="medium">
-        <color indexed="64"/>
-      </end>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start style="medium">
-        <color indexed="64"/>
-      </start>
-      <end/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start style="medium">
-        <color indexed="64"/>
-      </start>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -225,81 +231,73 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <start style="medium">
-        <color indexed="64"/>
-      </start>
-      <end style="medium">
-        <color indexed="64"/>
-      </end>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <start/>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <start/>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <start/>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Advarselstekst" xfId="3" builtinId="11"/>
     <cellStyle name="God" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ugyldig" xfId="2" builtinId="27"/>
@@ -318,7 +316,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Kontor">
       <a:dk1>
@@ -471,25 +469,25 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110%"/>
-                <a:satMod val="105%"/>
-                <a:tint val="67%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50%">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="103%"/>
-                <a:tint val="73%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100%">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="109%"/>
-                <a:tint val="81%"/>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -497,25 +495,25 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103%"/>
-                <a:lumMod val="102%"/>
-                <a:tint val="94%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50%">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110%"/>
-                <a:lumMod val="100%"/>
-                <a:shade val="100%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100%">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99%"/>
-                <a:satMod val="120%"/>
-                <a:shade val="78%"/>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -528,21 +526,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -556,7 +554,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63%"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -568,32 +566,32 @@
         </a:solidFill>
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:tint val="95%"/>
-            <a:satMod val="170%"/>
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
-              <a:schemeClr val="phClr">
-                <a:tint val="93%"/>
-                <a:satMod val="150%"/>
-                <a:shade val="98%"/>
-                <a:lumMod val="102%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50%">
-              <a:schemeClr val="phClr">
-                <a:tint val="98%"/>
-                <a:satMod val="130%"/>
-                <a:shade val="90%"/>
-                <a:lumMod val="103%"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100%">
-              <a:schemeClr val="phClr">
-                <a:shade val="63%"/>
-                <a:satMod val="120%"/>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -613,11 +611,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,53 +631,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="11"/>
+      <c r="C3" s="10"/>
+      <c r="E3" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="14"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="12"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="15"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="13"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -715,12 +719,6 @@
       <c r="N7" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C15" s="13"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
